--- a/doc/05_ファイル構成一覧表_イフリート・B・ムラナカ.xlsx
+++ b/doc/05_ファイル構成一覧表_イフリート・B・ムラナカ.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dojo6\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14AF878A-F5EC-4BD2-BAEB-D47F8E5EAE0F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A194CD9E-D5F5-471F-B6B5-7248510D6951}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{8AE99860-7ADF-4316-9590-B2AD2D1E8F62}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="92">
   <si>
     <t>項番</t>
     <rPh sb="0" eb="2">
@@ -372,6 +372,244 @@
   </si>
   <si>
     <t>resultGoals.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>dao</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>装飾品ステータステーブル関連のデータアクセスDAO</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ユーザテーブル関連のデータアクセスDAO/ログイン時の情報を格納</t>
+    <rPh sb="7" eb="9">
+      <t>カンレン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>収支テーブル関連のデータアクセスDAO/収支の登録、目標達成画面にて主に使用</t>
+    <rPh sb="0" eb="2">
+      <t>シュウシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>投稿テーブル関連のデータアクセスDAO/Buytterで主に使用</t>
+    <rPh sb="0" eb="2">
+      <t>トウコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>目標テーブル関連のデータアクセスDAO/目標設定画面や各画面の目標出力の際に使用</t>
+    <rPh sb="0" eb="2">
+      <t>モクヒョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>キャラクターステータステーブル関連のデータアクセスDAO/ユーザが育成してきたキャラクター一覧</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>キャラクターイメージテーブル関連のデータアクセスDAO/キャラクターごとの画像のパスが格納</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ナイスバイカウンターテーブル関連のデータアクセスDAO/nice buy数をカウントするためのテーブル</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ポイントテーブル関連のデータアクセスDAO/ポイント変動記録用のテーブル</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>検索履歴テーブル関連のデータアクセスDAO/検索履歴テーブル</t>
+    <rPh sb="0" eb="4">
+      <t>ケンサクリレキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>装飾品イメージテーブル関連のデータアクセスDAO/装飾品のIDと画像と値段が紐づけて格納されているテーブル</t>
+    <rPh sb="0" eb="3">
+      <t>ソウショクヒン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>javascript</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>WebContent/js</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>全画面共通js</t>
+    <rPh sb="0" eb="3">
+      <t>ゼンガメン</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>キョウツウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>トップ画面（カレンダー）js</t>
+    <rPh sb="3" eb="5">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1日の詳細表示、支出入力ページjs</t>
+    <rPh sb="1" eb="2">
+      <t>ニチ</t>
+    </rPh>
+    <rPh sb="3" eb="7">
+      <t>ショウサイヒョウジ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>シシュツ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>達成状況js</t>
+    <rPh sb="0" eb="4">
+      <t>タッセイジョウキョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>キャラの部屋js</t>
+    <rPh sb="4" eb="6">
+      <t>ヘヤ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>投稿、TL、検索js</t>
+    <rPh sb="0" eb="2">
+      <t>トウコウ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ケンサク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>CSS</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>WebContent/css</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>全画面共通css</t>
+    <rPh sb="0" eb="3">
+      <t>ゼンガメン</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>キョウツウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ログイン画面css</t>
+    <rPh sb="4" eb="6">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>新規登録css</t>
+    <rPh sb="0" eb="4">
+      <t>シンキトウロク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>登録完了画面css</t>
+    <rPh sb="0" eb="2">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="2" eb="6">
+      <t>カンリョウガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>トップ画面（カレンダー）css</t>
+    <rPh sb="3" eb="5">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>１日の詳細表示、支出入力ページcss</t>
+    <rPh sb="1" eb="2">
+      <t>ニチ</t>
+    </rPh>
+    <rPh sb="3" eb="7">
+      <t>ショウサイヒョウジ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>シシュツ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>キャラの部屋css</t>
+    <rPh sb="4" eb="6">
+      <t>ヘヤ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>達成状況css</t>
+    <rPh sb="0" eb="4">
+      <t>タッセイジョウキョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>投稿、TL、検索css</t>
+    <rPh sb="0" eb="2">
+      <t>トウコウ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ケンサク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ランキングcss</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>目標設定css</t>
+    <rPh sb="0" eb="4">
+      <t>モクヒョウセッテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>目標達成css</t>
+    <rPh sb="0" eb="4">
+      <t>モクヒョウタッセイ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -410,7 +648,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -433,6 +671,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -449,7 +698,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -766,10 +1015,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E03B5C93-7580-462C-846E-315461EE1FB8}">
-  <dimension ref="B2:G45"/>
+  <dimension ref="B2:G65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -777,7 +1026,7 @@
     <col min="3" max="3" width="9.75" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="29.58203125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="16.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="58.83203125" customWidth="1"/>
+    <col min="6" max="6" width="100.08203125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="16.08203125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -822,7 +1071,7 @@
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B4" s="1">
-        <f t="shared" ref="B4:B44" si="0">ROW()-2</f>
+        <f t="shared" ref="B4:B65" si="0">ROW()-2</f>
         <v>2</v>
       </c>
       <c r="C4" s="1" t="s">
@@ -1262,10 +1511,16 @@
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
-      <c r="C27" s="1"/>
-      <c r="D27" s="1"/>
+      <c r="C27" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>58</v>
+      </c>
       <c r="E27" s="1"/>
-      <c r="F27" s="1"/>
+      <c r="F27" s="1" t="s">
+        <v>60</v>
+      </c>
       <c r="G27" s="1"/>
     </row>
     <row r="28" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -1273,10 +1528,16 @@
         <f t="shared" si="0"/>
         <v>26</v>
       </c>
-      <c r="C28" s="1"/>
-      <c r="D28" s="1"/>
+      <c r="C28" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>58</v>
+      </c>
       <c r="E28" s="1"/>
-      <c r="F28" s="1"/>
+      <c r="F28" s="1" t="s">
+        <v>61</v>
+      </c>
       <c r="G28" s="1"/>
     </row>
     <row r="29" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -1284,10 +1545,16 @@
         <f t="shared" si="0"/>
         <v>27</v>
       </c>
-      <c r="C29" s="1"/>
-      <c r="D29" s="1"/>
+      <c r="C29" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>58</v>
+      </c>
       <c r="E29" s="1"/>
-      <c r="F29" s="1"/>
+      <c r="F29" s="1" t="s">
+        <v>62</v>
+      </c>
       <c r="G29" s="1"/>
     </row>
     <row r="30" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -1295,10 +1562,16 @@
         <f t="shared" si="0"/>
         <v>28</v>
       </c>
-      <c r="C30" s="1"/>
-      <c r="D30" s="1"/>
+      <c r="C30" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>58</v>
+      </c>
       <c r="E30" s="1"/>
-      <c r="F30" s="1"/>
+      <c r="F30" s="1" t="s">
+        <v>63</v>
+      </c>
       <c r="G30" s="1"/>
     </row>
     <row r="31" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -1306,10 +1579,16 @@
         <f t="shared" si="0"/>
         <v>29</v>
       </c>
-      <c r="C31" s="1"/>
-      <c r="D31" s="1"/>
+      <c r="C31" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>58</v>
+      </c>
       <c r="E31" s="1"/>
-      <c r="F31" s="1"/>
+      <c r="F31" s="3" t="s">
+        <v>64</v>
+      </c>
       <c r="G31" s="1"/>
     </row>
     <row r="32" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -1317,10 +1596,16 @@
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-      <c r="C32" s="1"/>
-      <c r="D32" s="1"/>
+      <c r="C32" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>58</v>
+      </c>
       <c r="E32" s="1"/>
-      <c r="F32" s="1"/>
+      <c r="F32" s="1" t="s">
+        <v>65</v>
+      </c>
       <c r="G32" s="1"/>
     </row>
     <row r="33" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -1328,10 +1613,16 @@
         <f t="shared" si="0"/>
         <v>31</v>
       </c>
-      <c r="C33" s="1"/>
-      <c r="D33" s="1"/>
+      <c r="C33" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>58</v>
+      </c>
       <c r="E33" s="1"/>
-      <c r="F33" s="1"/>
+      <c r="F33" s="1" t="s">
+        <v>66</v>
+      </c>
       <c r="G33" s="1"/>
     </row>
     <row r="34" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -1339,10 +1630,16 @@
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
-      <c r="C34" s="1"/>
-      <c r="D34" s="1"/>
+      <c r="C34" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>58</v>
+      </c>
       <c r="E34" s="1"/>
-      <c r="F34" s="1"/>
+      <c r="F34" s="1" t="s">
+        <v>67</v>
+      </c>
       <c r="G34" s="1"/>
     </row>
     <row r="35" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -1350,10 +1647,16 @@
         <f t="shared" si="0"/>
         <v>33</v>
       </c>
-      <c r="C35" s="1"/>
-      <c r="D35" s="1"/>
+      <c r="C35" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>58</v>
+      </c>
       <c r="E35" s="1"/>
-      <c r="F35" s="1"/>
+      <c r="F35" s="1" t="s">
+        <v>68</v>
+      </c>
       <c r="G35" s="1"/>
     </row>
     <row r="36" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -1361,10 +1664,16 @@
         <f t="shared" si="0"/>
         <v>34</v>
       </c>
-      <c r="C36" s="1"/>
-      <c r="D36" s="1"/>
+      <c r="C36" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>58</v>
+      </c>
       <c r="E36" s="1"/>
-      <c r="F36" s="1"/>
+      <c r="F36" s="1" t="s">
+        <v>69</v>
+      </c>
       <c r="G36" s="1"/>
     </row>
     <row r="37" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -1372,10 +1681,16 @@
         <f t="shared" si="0"/>
         <v>35</v>
       </c>
-      <c r="C37" s="1"/>
-      <c r="D37" s="1"/>
+      <c r="C37" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>58</v>
+      </c>
       <c r="E37" s="1"/>
-      <c r="F37" s="1"/>
+      <c r="F37" s="1" t="s">
+        <v>59</v>
+      </c>
       <c r="G37" s="1"/>
     </row>
     <row r="38" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -1383,10 +1698,16 @@
         <f t="shared" si="0"/>
         <v>36</v>
       </c>
-      <c r="C38" s="1"/>
-      <c r="D38" s="1"/>
+      <c r="C38" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>71</v>
+      </c>
       <c r="E38" s="1"/>
-      <c r="F38" s="1"/>
+      <c r="F38" s="1" t="s">
+        <v>72</v>
+      </c>
       <c r="G38" s="1"/>
     </row>
     <row r="39" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -1394,10 +1715,16 @@
         <f t="shared" si="0"/>
         <v>37</v>
       </c>
-      <c r="C39" s="1"/>
-      <c r="D39" s="1"/>
+      <c r="C39" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>71</v>
+      </c>
       <c r="E39" s="1"/>
-      <c r="F39" s="1"/>
+      <c r="F39" s="1" t="s">
+        <v>73</v>
+      </c>
       <c r="G39" s="1"/>
     </row>
     <row r="40" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -1405,10 +1732,16 @@
         <f t="shared" si="0"/>
         <v>38</v>
       </c>
-      <c r="C40" s="1"/>
-      <c r="D40" s="1"/>
+      <c r="C40" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>71</v>
+      </c>
       <c r="E40" s="1"/>
-      <c r="F40" s="1"/>
+      <c r="F40" s="1" t="s">
+        <v>74</v>
+      </c>
       <c r="G40" s="1"/>
     </row>
     <row r="41" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -1416,10 +1749,16 @@
         <f t="shared" si="0"/>
         <v>39</v>
       </c>
-      <c r="C41" s="1"/>
-      <c r="D41" s="1"/>
+      <c r="C41" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>71</v>
+      </c>
       <c r="E41" s="1"/>
-      <c r="F41" s="1"/>
+      <c r="F41" s="1" t="s">
+        <v>75</v>
+      </c>
       <c r="G41" s="1"/>
     </row>
     <row r="42" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -1427,10 +1766,16 @@
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
-      <c r="C42" s="1"/>
-      <c r="D42" s="1"/>
+      <c r="C42" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>71</v>
+      </c>
       <c r="E42" s="1"/>
-      <c r="F42" s="1"/>
+      <c r="F42" s="1" t="s">
+        <v>76</v>
+      </c>
       <c r="G42" s="1"/>
     </row>
     <row r="43" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -1438,10 +1783,16 @@
         <f t="shared" si="0"/>
         <v>41</v>
       </c>
-      <c r="C43" s="1"/>
-      <c r="D43" s="1"/>
+      <c r="C43" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>71</v>
+      </c>
       <c r="E43" s="1"/>
-      <c r="F43" s="1"/>
+      <c r="F43" s="1" t="s">
+        <v>77</v>
+      </c>
       <c r="G43" s="1"/>
     </row>
     <row r="44" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -1449,14 +1800,314 @@
         <f t="shared" si="0"/>
         <v>42</v>
       </c>
-      <c r="C44" s="1"/>
-      <c r="D44" s="1"/>
+      <c r="C44" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>79</v>
+      </c>
       <c r="E44" s="1"/>
-      <c r="F44" s="1"/>
+      <c r="F44" s="1" t="s">
+        <v>80</v>
+      </c>
       <c r="G44" s="1"/>
     </row>
     <row r="45" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B45" s="3"/>
+      <c r="B45" s="1">
+        <f t="shared" si="0"/>
+        <v>43</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="E45" s="1"/>
+      <c r="F45" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="G45" s="1"/>
+    </row>
+    <row r="46" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B46" s="1">
+        <f t="shared" si="0"/>
+        <v>44</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="E46" s="1"/>
+      <c r="F46" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="G46" s="1"/>
+    </row>
+    <row r="47" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B47" s="1">
+        <f t="shared" si="0"/>
+        <v>45</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="E47" s="1"/>
+      <c r="F47" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="G47" s="1"/>
+    </row>
+    <row r="48" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B48" s="1">
+        <f t="shared" si="0"/>
+        <v>46</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="E48" s="1"/>
+      <c r="F48" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="G48" s="1"/>
+    </row>
+    <row r="49" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B49" s="1">
+        <f t="shared" si="0"/>
+        <v>47</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="E49" s="1"/>
+      <c r="F49" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="G49" s="1"/>
+    </row>
+    <row r="50" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B50" s="1">
+        <f t="shared" si="0"/>
+        <v>48</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="E50" s="1"/>
+      <c r="F50" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="G50" s="1"/>
+    </row>
+    <row r="51" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B51" s="1">
+        <f t="shared" si="0"/>
+        <v>49</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="E51" s="1"/>
+      <c r="F51" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="G51" s="1"/>
+    </row>
+    <row r="52" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B52" s="1">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="E52" s="1"/>
+      <c r="F52" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="G52" s="1"/>
+    </row>
+    <row r="53" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B53" s="1">
+        <f t="shared" si="0"/>
+        <v>51</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="E53" s="1"/>
+      <c r="F53" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="G53" s="1"/>
+    </row>
+    <row r="54" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B54" s="1">
+        <f t="shared" si="0"/>
+        <v>52</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="E54" s="1"/>
+      <c r="F54" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="G54" s="1"/>
+    </row>
+    <row r="55" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B55" s="1">
+        <f t="shared" si="0"/>
+        <v>53</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="E55" s="1"/>
+      <c r="F55" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="G55" s="1"/>
+    </row>
+    <row r="56" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B56" s="1">
+        <f t="shared" si="0"/>
+        <v>54</v>
+      </c>
+      <c r="C56" s="1"/>
+      <c r="D56" s="1"/>
+      <c r="E56" s="1"/>
+      <c r="F56" s="1"/>
+      <c r="G56" s="1"/>
+    </row>
+    <row r="57" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B57" s="1">
+        <f t="shared" si="0"/>
+        <v>55</v>
+      </c>
+      <c r="C57" s="1"/>
+      <c r="D57" s="1"/>
+      <c r="E57" s="1"/>
+      <c r="F57" s="1"/>
+      <c r="G57" s="1"/>
+    </row>
+    <row r="58" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B58" s="1">
+        <f t="shared" si="0"/>
+        <v>56</v>
+      </c>
+      <c r="C58" s="1"/>
+      <c r="D58" s="1"/>
+      <c r="E58" s="1"/>
+      <c r="F58" s="1"/>
+      <c r="G58" s="1"/>
+    </row>
+    <row r="59" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B59" s="1">
+        <f t="shared" si="0"/>
+        <v>57</v>
+      </c>
+      <c r="C59" s="1"/>
+      <c r="D59" s="1"/>
+      <c r="E59" s="1"/>
+      <c r="F59" s="1"/>
+      <c r="G59" s="1"/>
+    </row>
+    <row r="60" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B60" s="1">
+        <f t="shared" si="0"/>
+        <v>58</v>
+      </c>
+      <c r="C60" s="1"/>
+      <c r="D60" s="1"/>
+      <c r="E60" s="1"/>
+      <c r="F60" s="1"/>
+      <c r="G60" s="1"/>
+    </row>
+    <row r="61" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B61" s="1">
+        <f t="shared" si="0"/>
+        <v>59</v>
+      </c>
+      <c r="C61" s="1"/>
+      <c r="D61" s="1"/>
+      <c r="E61" s="1"/>
+      <c r="F61" s="1"/>
+      <c r="G61" s="1"/>
+    </row>
+    <row r="62" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B62" s="1">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+      <c r="C62" s="1"/>
+      <c r="D62" s="1"/>
+      <c r="E62" s="1"/>
+      <c r="F62" s="1"/>
+      <c r="G62" s="1"/>
+    </row>
+    <row r="63" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B63" s="1">
+        <f t="shared" si="0"/>
+        <v>61</v>
+      </c>
+      <c r="C63" s="1"/>
+      <c r="D63" s="1"/>
+      <c r="E63" s="1"/>
+      <c r="F63" s="1"/>
+      <c r="G63" s="1"/>
+    </row>
+    <row r="64" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B64" s="1">
+        <f t="shared" si="0"/>
+        <v>62</v>
+      </c>
+      <c r="C64" s="1"/>
+      <c r="D64" s="1"/>
+      <c r="E64" s="1"/>
+      <c r="F64" s="1"/>
+      <c r="G64" s="1"/>
+    </row>
+    <row r="65" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B65" s="1">
+        <f t="shared" si="0"/>
+        <v>63</v>
+      </c>
+      <c r="C65" s="1"/>
+      <c r="D65" s="1"/>
+      <c r="E65" s="1"/>
+      <c r="F65" s="1"/>
+      <c r="G65" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -1466,9 +2117,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1643,27 +2297,15 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2CD51129-CE6F-45E1-BB00-4EFAA7AA477C}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39FADF03-5109-4CCE-A5D7-74DA56792023}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="01c64581-d9a7-4bf3-8493-a30fa4f21230"/>
-    <ds:schemaRef ds:uri="f11e5c67-cf10-45fe-9586-3550a4dd026c"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -1688,9 +2330,18 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39FADF03-5109-4CCE-A5D7-74DA56792023}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2CD51129-CE6F-45E1-BB00-4EFAA7AA477C}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="01c64581-d9a7-4bf3-8493-a30fa4f21230"/>
+    <ds:schemaRef ds:uri="f11e5c67-cf10-45fe-9586-3550a4dd026c"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/doc/05_ファイル構成一覧表_イフリート・B・ムラナカ.xlsx
+++ b/doc/05_ファイル構成一覧表_イフリート・B・ムラナカ.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dojo6\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A194CD9E-D5F5-471F-B6B5-7248510D6951}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70ED85B1-E8A1-49EC-BB7F-0A74E96396B2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{8AE99860-7ADF-4316-9590-B2AD2D1E8F62}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="93">
   <si>
     <t>項番</t>
     <rPh sb="0" eb="2">
@@ -609,6 +609,22 @@
     <t>目標達成css</t>
     <rPh sb="0" eb="4">
       <t>モクヒョウタッセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>貯金テーブル関連のデータアクセスDAO/貯金の変動</t>
+    <rPh sb="0" eb="2">
+      <t>チョキン</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>カンレン</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>チョキン</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>ヘンドウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1017,8 +1033,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E03B5C93-7580-462C-846E-315461EE1FB8}">
   <dimension ref="B2:G65"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="F56" sqref="F56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -1699,14 +1715,13 @@
         <v>36</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>70</v>
+        <v>6</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="E38" s="1"/>
+        <v>58</v>
+      </c>
       <c r="F38" s="1" t="s">
-        <v>72</v>
+        <v>92</v>
       </c>
       <c r="G38" s="1"/>
     </row>
@@ -1723,7 +1738,7 @@
       </c>
       <c r="E39" s="1"/>
       <c r="F39" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G39" s="1"/>
     </row>
@@ -1740,7 +1755,7 @@
       </c>
       <c r="E40" s="1"/>
       <c r="F40" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G40" s="1"/>
     </row>
@@ -1757,7 +1772,7 @@
       </c>
       <c r="E41" s="1"/>
       <c r="F41" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G41" s="1"/>
     </row>
@@ -1774,7 +1789,7 @@
       </c>
       <c r="E42" s="1"/>
       <c r="F42" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G42" s="1"/>
     </row>
@@ -1791,7 +1806,7 @@
       </c>
       <c r="E43" s="1"/>
       <c r="F43" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G43" s="1"/>
     </row>
@@ -1801,14 +1816,14 @@
         <v>42</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="E44" s="1"/>
       <c r="F44" s="1" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="G44" s="1"/>
     </row>
@@ -1825,7 +1840,7 @@
       </c>
       <c r="E45" s="1"/>
       <c r="F45" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G45" s="1"/>
     </row>
@@ -1842,7 +1857,7 @@
       </c>
       <c r="E46" s="1"/>
       <c r="F46" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G46" s="1"/>
     </row>
@@ -1859,7 +1874,7 @@
       </c>
       <c r="E47" s="1"/>
       <c r="F47" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G47" s="1"/>
     </row>
@@ -1876,7 +1891,7 @@
       </c>
       <c r="E48" s="1"/>
       <c r="F48" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G48" s="1"/>
     </row>
@@ -1893,7 +1908,7 @@
       </c>
       <c r="E49" s="1"/>
       <c r="F49" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G49" s="1"/>
     </row>
@@ -1910,7 +1925,7 @@
       </c>
       <c r="E50" s="1"/>
       <c r="F50" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G50" s="1"/>
     </row>
@@ -1927,7 +1942,7 @@
       </c>
       <c r="E51" s="1"/>
       <c r="F51" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G51" s="1"/>
     </row>
@@ -1944,7 +1959,7 @@
       </c>
       <c r="E52" s="1"/>
       <c r="F52" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G52" s="1"/>
     </row>
@@ -1961,7 +1976,7 @@
       </c>
       <c r="E53" s="1"/>
       <c r="F53" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G53" s="1"/>
     </row>
@@ -1978,7 +1993,7 @@
       </c>
       <c r="E54" s="1"/>
       <c r="F54" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G54" s="1"/>
     </row>
@@ -1995,7 +2010,7 @@
       </c>
       <c r="E55" s="1"/>
       <c r="F55" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G55" s="1"/>
     </row>
@@ -2004,10 +2019,16 @@
         <f t="shared" si="0"/>
         <v>54</v>
       </c>
-      <c r="C56" s="1"/>
-      <c r="D56" s="1"/>
+      <c r="C56" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>79</v>
+      </c>
       <c r="E56" s="1"/>
-      <c r="F56" s="1"/>
+      <c r="F56" s="1" t="s">
+        <v>91</v>
+      </c>
       <c r="G56" s="1"/>
     </row>
     <row r="57" spans="2:7" x14ac:dyDescent="0.55000000000000004">

--- a/doc/05_ファイル構成一覧表_イフリート・B・ムラナカ.xlsx
+++ b/doc/05_ファイル構成一覧表_イフリート・B・ムラナカ.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dojo6\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70ED85B1-E8A1-49EC-BB7F-0A74E96396B2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF69074C-0002-4A7E-BEBA-FE3A41BD806B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{8AE99860-7ADF-4316-9590-B2AD2D1E8F62}"/>
+    <workbookView xWindow="19090" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{8AE99860-7ADF-4316-9590-B2AD2D1E8F62}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="384" uniqueCount="94">
   <si>
     <t>項番</t>
     <rPh sb="0" eb="2">
@@ -327,50 +327,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>login.java</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>register.java</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>result.java</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>calendar.java</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>payment.java</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>room.java</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>achievement.java</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>buytter.java</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ranking.java</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>setGoals.java</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>egg.java</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>resultGoals.java</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -626,6 +582,54 @@
     <rPh sb="23" eb="25">
       <t>ヘンドウ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>loginServlet.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>registerServlet.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>resultServlet.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>calendarServlet.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>paymentServlet.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>roomServlet.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>achievementServlet.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>buytterServlet.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>rankingServlet.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>setGoalsServlet.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>eggServlet.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>resultGoalsServlet.java</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1033,8 +1037,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E03B5C93-7580-462C-846E-315461EE1FB8}">
   <dimension ref="B2:G65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="F56" sqref="F56"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -1306,7 +1310,7 @@
         <v>33</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>46</v>
+        <v>82</v>
       </c>
       <c r="F15" s="1" t="s">
         <v>9</v>
@@ -1325,7 +1329,7 @@
         <v>33</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>47</v>
+        <v>83</v>
       </c>
       <c r="F16" s="1" t="s">
         <v>34</v>
@@ -1344,7 +1348,7 @@
         <v>33</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>48</v>
+        <v>84</v>
       </c>
       <c r="F17" s="1" t="s">
         <v>10</v>
@@ -1363,7 +1367,7 @@
         <v>33</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>49</v>
+        <v>85</v>
       </c>
       <c r="F18" s="1" t="s">
         <v>11</v>
@@ -1382,7 +1386,7 @@
         <v>33</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>50</v>
+        <v>86</v>
       </c>
       <c r="F19" s="1" t="s">
         <v>12</v>
@@ -1401,7 +1405,7 @@
         <v>33</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>51</v>
+        <v>87</v>
       </c>
       <c r="F20" s="1" t="s">
         <v>13</v>
@@ -1420,7 +1424,7 @@
         <v>33</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>52</v>
+        <v>88</v>
       </c>
       <c r="F21" s="1" t="s">
         <v>14</v>
@@ -1439,7 +1443,7 @@
         <v>33</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>53</v>
+        <v>89</v>
       </c>
       <c r="F22" s="1" t="s">
         <v>16</v>
@@ -1458,7 +1462,7 @@
         <v>33</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>54</v>
+        <v>90</v>
       </c>
       <c r="F23" s="1" t="s">
         <v>15</v>
@@ -1477,7 +1481,7 @@
         <v>33</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>55</v>
+        <v>91</v>
       </c>
       <c r="F24" s="1" t="s">
         <v>17</v>
@@ -1496,7 +1500,7 @@
         <v>33</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>56</v>
+        <v>92</v>
       </c>
       <c r="F25" s="1" t="s">
         <v>18</v>
@@ -1515,7 +1519,7 @@
         <v>33</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>57</v>
+        <v>93</v>
       </c>
       <c r="F26" s="1" t="s">
         <v>35</v>
@@ -1531,11 +1535,11 @@
         <v>6</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>58</v>
+        <v>47</v>
       </c>
       <c r="E27" s="1"/>
       <c r="F27" s="1" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="G27" s="1"/>
     </row>
@@ -1548,11 +1552,11 @@
         <v>6</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>58</v>
+        <v>47</v>
       </c>
       <c r="E28" s="1"/>
       <c r="F28" s="1" t="s">
-        <v>61</v>
+        <v>50</v>
       </c>
       <c r="G28" s="1"/>
     </row>
@@ -1565,11 +1569,11 @@
         <v>6</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>58</v>
+        <v>47</v>
       </c>
       <c r="E29" s="1"/>
       <c r="F29" s="1" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="G29" s="1"/>
     </row>
@@ -1582,11 +1586,11 @@
         <v>6</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>58</v>
+        <v>47</v>
       </c>
       <c r="E30" s="1"/>
       <c r="F30" s="1" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
       <c r="G30" s="1"/>
     </row>
@@ -1599,11 +1603,11 @@
         <v>6</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>58</v>
+        <v>47</v>
       </c>
       <c r="E31" s="1"/>
       <c r="F31" s="3" t="s">
-        <v>64</v>
+        <v>53</v>
       </c>
       <c r="G31" s="1"/>
     </row>
@@ -1616,11 +1620,11 @@
         <v>6</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>58</v>
+        <v>47</v>
       </c>
       <c r="E32" s="1"/>
       <c r="F32" s="1" t="s">
-        <v>65</v>
+        <v>54</v>
       </c>
       <c r="G32" s="1"/>
     </row>
@@ -1633,11 +1637,11 @@
         <v>6</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>58</v>
+        <v>47</v>
       </c>
       <c r="E33" s="1"/>
       <c r="F33" s="1" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="G33" s="1"/>
     </row>
@@ -1650,11 +1654,11 @@
         <v>6</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>58</v>
+        <v>47</v>
       </c>
       <c r="E34" s="1"/>
       <c r="F34" s="1" t="s">
-        <v>67</v>
+        <v>56</v>
       </c>
       <c r="G34" s="1"/>
     </row>
@@ -1667,11 +1671,11 @@
         <v>6</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>58</v>
+        <v>47</v>
       </c>
       <c r="E35" s="1"/>
       <c r="F35" s="1" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="G35" s="1"/>
     </row>
@@ -1684,11 +1688,11 @@
         <v>6</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>58</v>
+        <v>47</v>
       </c>
       <c r="E36" s="1"/>
       <c r="F36" s="1" t="s">
-        <v>69</v>
+        <v>58</v>
       </c>
       <c r="G36" s="1"/>
     </row>
@@ -1701,11 +1705,11 @@
         <v>6</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>58</v>
+        <v>47</v>
       </c>
       <c r="E37" s="1"/>
       <c r="F37" s="1" t="s">
-        <v>59</v>
+        <v>48</v>
       </c>
       <c r="G37" s="1"/>
     </row>
@@ -1718,10 +1722,10 @@
         <v>6</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>58</v>
+        <v>47</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="G38" s="1"/>
     </row>
@@ -1731,14 +1735,14 @@
         <v>37</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="E39" s="1"/>
       <c r="F39" s="1" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="G39" s="1"/>
     </row>
@@ -1748,14 +1752,14 @@
         <v>38</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="E40" s="1"/>
       <c r="F40" s="1" t="s">
-        <v>73</v>
+        <v>62</v>
       </c>
       <c r="G40" s="1"/>
     </row>
@@ -1765,14 +1769,14 @@
         <v>39</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="E41" s="1"/>
       <c r="F41" s="1" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
       <c r="G41" s="1"/>
     </row>
@@ -1782,14 +1786,14 @@
         <v>40</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="E42" s="1"/>
       <c r="F42" s="1" t="s">
-        <v>75</v>
+        <v>64</v>
       </c>
       <c r="G42" s="1"/>
     </row>
@@ -1799,14 +1803,14 @@
         <v>41</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="E43" s="1"/>
       <c r="F43" s="1" t="s">
-        <v>76</v>
+        <v>65</v>
       </c>
       <c r="G43" s="1"/>
     </row>
@@ -1816,14 +1820,14 @@
         <v>42</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="E44" s="1"/>
       <c r="F44" s="1" t="s">
-        <v>77</v>
+        <v>66</v>
       </c>
       <c r="G44" s="1"/>
     </row>
@@ -1833,14 +1837,14 @@
         <v>43</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>79</v>
+        <v>68</v>
       </c>
       <c r="E45" s="1"/>
       <c r="F45" s="1" t="s">
-        <v>80</v>
+        <v>69</v>
       </c>
       <c r="G45" s="1"/>
     </row>
@@ -1850,14 +1854,14 @@
         <v>44</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>79</v>
+        <v>68</v>
       </c>
       <c r="E46" s="1"/>
       <c r="F46" s="1" t="s">
-        <v>81</v>
+        <v>70</v>
       </c>
       <c r="G46" s="1"/>
     </row>
@@ -1867,14 +1871,14 @@
         <v>45</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>79</v>
+        <v>68</v>
       </c>
       <c r="E47" s="1"/>
       <c r="F47" s="1" t="s">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="G47" s="1"/>
     </row>
@@ -1884,14 +1888,14 @@
         <v>46</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>79</v>
+        <v>68</v>
       </c>
       <c r="E48" s="1"/>
       <c r="F48" s="1" t="s">
-        <v>83</v>
+        <v>72</v>
       </c>
       <c r="G48" s="1"/>
     </row>
@@ -1901,14 +1905,14 @@
         <v>47</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>79</v>
+        <v>68</v>
       </c>
       <c r="E49" s="1"/>
       <c r="F49" s="1" t="s">
-        <v>84</v>
+        <v>73</v>
       </c>
       <c r="G49" s="1"/>
     </row>
@@ -1918,14 +1922,14 @@
         <v>48</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>79</v>
+        <v>68</v>
       </c>
       <c r="E50" s="1"/>
       <c r="F50" s="1" t="s">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="G50" s="1"/>
     </row>
@@ -1935,14 +1939,14 @@
         <v>49</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>79</v>
+        <v>68</v>
       </c>
       <c r="E51" s="1"/>
       <c r="F51" s="1" t="s">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="G51" s="1"/>
     </row>
@@ -1952,14 +1956,14 @@
         <v>50</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>79</v>
+        <v>68</v>
       </c>
       <c r="E52" s="1"/>
       <c r="F52" s="1" t="s">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="G52" s="1"/>
     </row>
@@ -1969,14 +1973,14 @@
         <v>51</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>79</v>
+        <v>68</v>
       </c>
       <c r="E53" s="1"/>
       <c r="F53" s="1" t="s">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="G53" s="1"/>
     </row>
@@ -1986,14 +1990,14 @@
         <v>52</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>79</v>
+        <v>68</v>
       </c>
       <c r="E54" s="1"/>
       <c r="F54" s="1" t="s">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="G54" s="1"/>
     </row>
@@ -2003,14 +2007,14 @@
         <v>53</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>79</v>
+        <v>68</v>
       </c>
       <c r="E55" s="1"/>
       <c r="F55" s="1" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="G55" s="1"/>
     </row>
@@ -2020,14 +2024,14 @@
         <v>54</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>79</v>
+        <v>68</v>
       </c>
       <c r="E56" s="1"/>
       <c r="F56" s="1" t="s">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="G56" s="1"/>
     </row>
@@ -2138,12 +2142,9 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2318,15 +2319,27 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39FADF03-5109-4CCE-A5D7-74DA56792023}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2CD51129-CE6F-45E1-BB00-4EFAA7AA477C}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="01c64581-d9a7-4bf3-8493-a30fa4f21230"/>
+    <ds:schemaRef ds:uri="f11e5c67-cf10-45fe-9586-3550a4dd026c"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -2351,18 +2364,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2CD51129-CE6F-45E1-BB00-4EFAA7AA477C}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39FADF03-5109-4CCE-A5D7-74DA56792023}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="01c64581-d9a7-4bf3-8493-a30fa4f21230"/>
-    <ds:schemaRef ds:uri="f11e5c67-cf10-45fe-9586-3550a4dd026c"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/doc/05_ファイル構成一覧表_イフリート・B・ムラナカ.xlsx
+++ b/doc/05_ファイル構成一覧表_イフリート・B・ムラナカ.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dojo6\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF69074C-0002-4A7E-BEBA-FE3A41BD806B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AE3D51B-6291-43E0-8EEE-2AF53AC44A5F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="19090" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{8AE99860-7ADF-4316-9590-B2AD2D1E8F62}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="384" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="123">
   <si>
     <t>項番</t>
     <rPh sb="0" eb="2">
@@ -327,10 +327,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>resultGoals.java</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>dao</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -630,6 +626,125 @@
   </si>
   <si>
     <t>resultGoalsServlet.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>common.css</t>
+  </si>
+  <si>
+    <t>login.css</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>register.css</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>result.css</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>calendar.css</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>payment.css</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>room.css</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>achievement.css</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>buytter.css</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ranking.css</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>setGoals.css</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>resultGoals.css</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>common.js</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>calendar.js</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>payment.js</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>achievement.js</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>room.js</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>buytter.js</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>idpwsDao.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>paymentsDao.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>buyttersDao.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>goalsDao.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>charactersDao.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>charpicsDao.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>nicebuycountsDao.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>pointsDao.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>historysDao.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>itemspicsDao.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>itemsDao.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>banksDao.java</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -708,7 +823,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -719,6 +834,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1037,8 +1155,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E03B5C93-7580-462C-846E-315461EE1FB8}">
   <dimension ref="B2:G65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -1310,7 +1428,7 @@
         <v>33</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F15" s="1" t="s">
         <v>9</v>
@@ -1329,7 +1447,7 @@
         <v>33</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F16" s="1" t="s">
         <v>34</v>
@@ -1348,7 +1466,7 @@
         <v>33</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F17" s="1" t="s">
         <v>10</v>
@@ -1367,7 +1485,7 @@
         <v>33</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F18" s="1" t="s">
         <v>11</v>
@@ -1386,7 +1504,7 @@
         <v>33</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F19" s="1" t="s">
         <v>12</v>
@@ -1405,7 +1523,7 @@
         <v>33</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F20" s="1" t="s">
         <v>13</v>
@@ -1424,7 +1542,7 @@
         <v>33</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F21" s="1" t="s">
         <v>14</v>
@@ -1443,7 +1561,7 @@
         <v>33</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F22" s="1" t="s">
         <v>16</v>
@@ -1462,7 +1580,7 @@
         <v>33</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F23" s="1" t="s">
         <v>15</v>
@@ -1481,7 +1599,7 @@
         <v>33</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F24" s="1" t="s">
         <v>17</v>
@@ -1500,7 +1618,7 @@
         <v>33</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F25" s="1" t="s">
         <v>18</v>
@@ -1519,7 +1637,7 @@
         <v>33</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F26" s="1" t="s">
         <v>35</v>
@@ -1535,11 +1653,13 @@
         <v>6</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="E27" s="1"/>
+        <v>46</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>111</v>
+      </c>
       <c r="F27" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G27" s="1"/>
     </row>
@@ -1552,11 +1672,13 @@
         <v>6</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="E28" s="1"/>
+        <v>46</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>112</v>
+      </c>
       <c r="F28" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G28" s="1"/>
     </row>
@@ -1569,11 +1691,13 @@
         <v>6</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="E29" s="1"/>
+        <v>46</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>113</v>
+      </c>
       <c r="F29" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G29" s="1"/>
     </row>
@@ -1586,11 +1710,13 @@
         <v>6</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="E30" s="1"/>
+        <v>46</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>114</v>
+      </c>
       <c r="F30" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G30" s="1"/>
     </row>
@@ -1603,11 +1729,13 @@
         <v>6</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="E31" s="1"/>
+        <v>46</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>115</v>
+      </c>
       <c r="F31" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G31" s="1"/>
     </row>
@@ -1620,11 +1748,13 @@
         <v>6</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="E32" s="1"/>
+        <v>46</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>116</v>
+      </c>
       <c r="F32" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G32" s="1"/>
     </row>
@@ -1637,11 +1767,13 @@
         <v>6</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="E33" s="1"/>
+        <v>46</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>117</v>
+      </c>
       <c r="F33" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G33" s="1"/>
     </row>
@@ -1654,11 +1786,13 @@
         <v>6</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="E34" s="1"/>
+        <v>46</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>118</v>
+      </c>
       <c r="F34" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G34" s="1"/>
     </row>
@@ -1671,11 +1805,13 @@
         <v>6</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="E35" s="1"/>
+        <v>46</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>119</v>
+      </c>
       <c r="F35" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G35" s="1"/>
     </row>
@@ -1688,11 +1824,13 @@
         <v>6</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="E36" s="1"/>
+        <v>46</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>120</v>
+      </c>
       <c r="F36" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G36" s="1"/>
     </row>
@@ -1705,11 +1843,13 @@
         <v>6</v>
       </c>
       <c r="D37" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="F37" s="1" t="s">
         <v>47</v>
-      </c>
-      <c r="E37" s="1"/>
-      <c r="F37" s="1" t="s">
-        <v>48</v>
       </c>
       <c r="G37" s="1"/>
     </row>
@@ -1722,10 +1862,13 @@
         <v>6</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
+      </c>
+      <c r="E38" s="4" t="s">
+        <v>122</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G38" s="1"/>
     </row>
@@ -1735,14 +1878,16 @@
         <v>37</v>
       </c>
       <c r="C39" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D39" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="D39" s="1" t="s">
+      <c r="E39" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="F39" s="1" t="s">
         <v>60</v>
-      </c>
-      <c r="E39" s="1"/>
-      <c r="F39" s="1" t="s">
-        <v>61</v>
       </c>
       <c r="G39" s="1"/>
     </row>
@@ -1752,14 +1897,16 @@
         <v>38</v>
       </c>
       <c r="C40" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D40" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="D40" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="E40" s="1"/>
+      <c r="E40" s="1" t="s">
+        <v>106</v>
+      </c>
       <c r="F40" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G40" s="1"/>
     </row>
@@ -1769,14 +1916,16 @@
         <v>39</v>
       </c>
       <c r="C41" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D41" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="D41" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="E41" s="1"/>
+      <c r="E41" s="1" t="s">
+        <v>107</v>
+      </c>
       <c r="F41" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G41" s="1"/>
     </row>
@@ -1786,14 +1935,16 @@
         <v>40</v>
       </c>
       <c r="C42" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D42" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="D42" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="E42" s="1"/>
+      <c r="E42" s="1" t="s">
+        <v>108</v>
+      </c>
       <c r="F42" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G42" s="1"/>
     </row>
@@ -1803,14 +1954,16 @@
         <v>41</v>
       </c>
       <c r="C43" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D43" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="D43" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="E43" s="1"/>
+      <c r="E43" s="1" t="s">
+        <v>109</v>
+      </c>
       <c r="F43" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G43" s="1"/>
     </row>
@@ -1820,14 +1973,16 @@
         <v>42</v>
       </c>
       <c r="C44" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D44" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="D44" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="E44" s="1"/>
+      <c r="E44" s="1" t="s">
+        <v>110</v>
+      </c>
       <c r="F44" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G44" s="1"/>
     </row>
@@ -1837,14 +1992,16 @@
         <v>43</v>
       </c>
       <c r="C45" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D45" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="D45" s="1" t="s">
+      <c r="E45" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="F45" s="1" t="s">
         <v>68</v>
-      </c>
-      <c r="E45" s="1"/>
-      <c r="F45" s="1" t="s">
-        <v>69</v>
       </c>
       <c r="G45" s="1"/>
     </row>
@@ -1854,14 +2011,16 @@
         <v>44</v>
       </c>
       <c r="C46" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D46" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="D46" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="E46" s="1"/>
+      <c r="E46" s="1" t="s">
+        <v>94</v>
+      </c>
       <c r="F46" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G46" s="1"/>
     </row>
@@ -1871,14 +2030,16 @@
         <v>45</v>
       </c>
       <c r="C47" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D47" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="D47" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="E47" s="1"/>
+      <c r="E47" s="1" t="s">
+        <v>95</v>
+      </c>
       <c r="F47" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G47" s="1"/>
     </row>
@@ -1888,14 +2049,16 @@
         <v>46</v>
       </c>
       <c r="C48" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D48" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="D48" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="E48" s="1"/>
+      <c r="E48" s="1" t="s">
+        <v>96</v>
+      </c>
       <c r="F48" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G48" s="1"/>
     </row>
@@ -1905,14 +2068,16 @@
         <v>47</v>
       </c>
       <c r="C49" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D49" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="D49" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="E49" s="1"/>
+      <c r="E49" s="1" t="s">
+        <v>97</v>
+      </c>
       <c r="F49" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G49" s="1"/>
     </row>
@@ -1922,14 +2087,16 @@
         <v>48</v>
       </c>
       <c r="C50" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D50" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="D50" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="E50" s="1"/>
+      <c r="E50" s="1" t="s">
+        <v>98</v>
+      </c>
       <c r="F50" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G50" s="1"/>
     </row>
@@ -1939,14 +2106,16 @@
         <v>49</v>
       </c>
       <c r="C51" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D51" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="D51" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="E51" s="1"/>
+      <c r="E51" s="1" t="s">
+        <v>99</v>
+      </c>
       <c r="F51" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G51" s="1"/>
     </row>
@@ -1956,14 +2125,16 @@
         <v>50</v>
       </c>
       <c r="C52" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D52" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="D52" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="E52" s="1"/>
+      <c r="E52" s="1" t="s">
+        <v>100</v>
+      </c>
       <c r="F52" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G52" s="1"/>
     </row>
@@ -1973,14 +2144,16 @@
         <v>51</v>
       </c>
       <c r="C53" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D53" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="D53" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="E53" s="1"/>
+      <c r="E53" s="1" t="s">
+        <v>101</v>
+      </c>
       <c r="F53" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G53" s="1"/>
     </row>
@@ -1990,14 +2163,16 @@
         <v>52</v>
       </c>
       <c r="C54" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D54" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="D54" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="E54" s="1"/>
+      <c r="E54" s="1" t="s">
+        <v>102</v>
+      </c>
       <c r="F54" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G54" s="1"/>
     </row>
@@ -2007,14 +2182,16 @@
         <v>53</v>
       </c>
       <c r="C55" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D55" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="D55" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="E55" s="1"/>
+      <c r="E55" s="1" t="s">
+        <v>103</v>
+      </c>
       <c r="F55" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G55" s="1"/>
     </row>
@@ -2024,14 +2201,16 @@
         <v>54</v>
       </c>
       <c r="C56" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D56" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="D56" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="E56" s="1"/>
+      <c r="E56" s="1" t="s">
+        <v>104</v>
+      </c>
       <c r="F56" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G56" s="1"/>
     </row>

--- a/doc/05_ファイル構成一覧表_イフリート・B・ムラナカ.xlsx
+++ b/doc/05_ファイル構成一覧表_イフリート・B・ムラナカ.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dojo6\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AE3D51B-6291-43E0-8EEE-2AF53AC44A5F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C619C7ED-0F93-4B7D-A82E-49AD7EED5BA4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="19090" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{8AE99860-7ADF-4316-9590-B2AD2D1E8F62}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="148">
   <si>
     <t>項番</t>
     <rPh sb="0" eb="2">
@@ -745,6 +745,124 @@
   </si>
   <si>
     <t>banksDao.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>model</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ユーザテーブル</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>収支テーブル</t>
+    <rPh sb="0" eb="2">
+      <t>シュウシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>投稿テーブル</t>
+    <rPh sb="0" eb="2">
+      <t>トウコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>目標テーブル</t>
+    <rPh sb="0" eb="2">
+      <t>モクヒョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>キャラクターステータステーブル</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>キャラクターイメージテーブル</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ナイスバイカウンターテーブル</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ポイントテーブル</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>検索履歴テーブル</t>
+    <rPh sb="0" eb="4">
+      <t>ケンサクリレキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>装飾品イメージテーブル</t>
+    <rPh sb="0" eb="3">
+      <t>ソウショクヒン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>装飾品ステータステーブル</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>貯金テーブル</t>
+    <rPh sb="0" eb="2">
+      <t>チョキン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>idpws.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>payments.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>buytters.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>goals.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>characters.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>charpics.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>nicebuycounts.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>points.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>historys.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>itemspics.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>items.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>banks.java</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -823,7 +941,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -834,9 +952,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1153,10 +1268,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E03B5C93-7580-462C-846E-315461EE1FB8}">
-  <dimension ref="B2:G65"/>
+  <dimension ref="B2:G72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="F26" sqref="F26"/>
+    <sheetView tabSelected="1" topLeftCell="B53" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="E57" sqref="E57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -1209,7 +1324,7 @@
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B4" s="1">
-        <f t="shared" ref="B4:B65" si="0">ROW()-2</f>
+        <f t="shared" ref="B4:B67" si="0">ROW()-2</f>
         <v>2</v>
       </c>
       <c r="C4" s="1" t="s">
@@ -1864,7 +1979,7 @@
       <c r="D38" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="E38" s="4" t="s">
+      <c r="E38" s="3" t="s">
         <v>122</v>
       </c>
       <c r="F38" s="1" t="s">
@@ -2219,10 +2334,18 @@
         <f t="shared" si="0"/>
         <v>55</v>
       </c>
-      <c r="C57" s="1"/>
-      <c r="D57" s="1"/>
-      <c r="E57" s="1"/>
-      <c r="F57" s="1"/>
+      <c r="C57" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="E57" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="F57" s="1" t="s">
+        <v>124</v>
+      </c>
       <c r="G57" s="1"/>
     </row>
     <row r="58" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -2230,10 +2353,18 @@
         <f t="shared" si="0"/>
         <v>56</v>
       </c>
-      <c r="C58" s="1"/>
-      <c r="D58" s="1"/>
-      <c r="E58" s="1"/>
-      <c r="F58" s="1"/>
+      <c r="C58" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="E58" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="F58" s="1" t="s">
+        <v>125</v>
+      </c>
       <c r="G58" s="1"/>
     </row>
     <row r="59" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -2241,10 +2372,18 @@
         <f t="shared" si="0"/>
         <v>57</v>
       </c>
-      <c r="C59" s="1"/>
-      <c r="D59" s="1"/>
-      <c r="E59" s="1"/>
-      <c r="F59" s="1"/>
+      <c r="C59" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="E59" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="F59" s="1" t="s">
+        <v>126</v>
+      </c>
       <c r="G59" s="1"/>
     </row>
     <row r="60" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -2252,10 +2391,18 @@
         <f t="shared" si="0"/>
         <v>58</v>
       </c>
-      <c r="C60" s="1"/>
-      <c r="D60" s="1"/>
-      <c r="E60" s="1"/>
-      <c r="F60" s="1"/>
+      <c r="C60" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="E60" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="F60" s="1" t="s">
+        <v>127</v>
+      </c>
       <c r="G60" s="1"/>
     </row>
     <row r="61" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -2263,10 +2410,18 @@
         <f t="shared" si="0"/>
         <v>59</v>
       </c>
-      <c r="C61" s="1"/>
-      <c r="D61" s="1"/>
-      <c r="E61" s="1"/>
-      <c r="F61" s="1"/>
+      <c r="C61" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D61" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="E61" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="F61" s="3" t="s">
+        <v>128</v>
+      </c>
       <c r="G61" s="1"/>
     </row>
     <row r="62" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -2274,10 +2429,18 @@
         <f t="shared" si="0"/>
         <v>60</v>
       </c>
-      <c r="C62" s="1"/>
-      <c r="D62" s="1"/>
-      <c r="E62" s="1"/>
-      <c r="F62" s="1"/>
+      <c r="C62" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D62" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="E62" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="F62" s="1" t="s">
+        <v>129</v>
+      </c>
       <c r="G62" s="1"/>
     </row>
     <row r="63" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -2285,10 +2448,18 @@
         <f t="shared" si="0"/>
         <v>61</v>
       </c>
-      <c r="C63" s="1"/>
-      <c r="D63" s="1"/>
-      <c r="E63" s="1"/>
-      <c r="F63" s="1"/>
+      <c r="C63" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D63" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="E63" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="F63" s="1" t="s">
+        <v>130</v>
+      </c>
       <c r="G63" s="1"/>
     </row>
     <row r="64" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -2296,10 +2467,18 @@
         <f t="shared" si="0"/>
         <v>62</v>
       </c>
-      <c r="C64" s="1"/>
-      <c r="D64" s="1"/>
-      <c r="E64" s="1"/>
-      <c r="F64" s="1"/>
+      <c r="C64" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D64" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="E64" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="F64" s="1" t="s">
+        <v>131</v>
+      </c>
       <c r="G64" s="1"/>
     </row>
     <row r="65" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -2307,11 +2486,120 @@
         <f t="shared" si="0"/>
         <v>63</v>
       </c>
-      <c r="C65" s="1"/>
-      <c r="D65" s="1"/>
-      <c r="E65" s="1"/>
-      <c r="F65" s="1"/>
+      <c r="C65" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D65" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="E65" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="F65" s="1" t="s">
+        <v>132</v>
+      </c>
       <c r="G65" s="1"/>
+    </row>
+    <row r="66" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B66" s="1">
+        <f t="shared" si="0"/>
+        <v>64</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D66" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="E66" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="F66" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="G66" s="1"/>
+    </row>
+    <row r="67" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B67" s="1">
+        <f t="shared" si="0"/>
+        <v>65</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D67" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="E67" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="F67" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="G67" s="1"/>
+    </row>
+    <row r="68" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B68" s="1">
+        <f t="shared" ref="B68:B72" si="1">ROW()-2</f>
+        <v>66</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D68" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="E68" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="F68" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="G68" s="1"/>
+    </row>
+    <row r="69" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B69" s="1">
+        <f t="shared" si="1"/>
+        <v>67</v>
+      </c>
+      <c r="C69" s="1"/>
+      <c r="D69" s="1"/>
+      <c r="E69" s="1"/>
+      <c r="F69" s="1"/>
+      <c r="G69" s="1"/>
+    </row>
+    <row r="70" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B70" s="1">
+        <f t="shared" si="1"/>
+        <v>68</v>
+      </c>
+      <c r="C70" s="1"/>
+      <c r="D70" s="1"/>
+      <c r="E70" s="1"/>
+      <c r="F70" s="1"/>
+      <c r="G70" s="1"/>
+    </row>
+    <row r="71" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B71" s="1">
+        <f t="shared" si="1"/>
+        <v>69</v>
+      </c>
+      <c r="C71" s="1"/>
+      <c r="D71" s="1"/>
+      <c r="E71" s="1"/>
+      <c r="F71" s="1"/>
+      <c r="G71" s="1"/>
+    </row>
+    <row r="72" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B72" s="1">
+        <f t="shared" si="1"/>
+        <v>70</v>
+      </c>
+      <c r="C72" s="1"/>
+      <c r="D72" s="1"/>
+      <c r="E72" s="1"/>
+      <c r="F72" s="1"/>
+      <c r="G72" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -2321,9 +2609,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2498,27 +2789,15 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2CD51129-CE6F-45E1-BB00-4EFAA7AA477C}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39FADF03-5109-4CCE-A5D7-74DA56792023}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="01c64581-d9a7-4bf3-8493-a30fa4f21230"/>
-    <ds:schemaRef ds:uri="f11e5c67-cf10-45fe-9586-3550a4dd026c"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -2543,9 +2822,18 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39FADF03-5109-4CCE-A5D7-74DA56792023}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2CD51129-CE6F-45E1-BB00-4EFAA7AA477C}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="01c64581-d9a7-4bf3-8493-a30fa4f21230"/>
+    <ds:schemaRef ds:uri="f11e5c67-cf10-45fe-9586-3550a4dd026c"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/doc/05_ファイル構成一覧表_イフリート・B・ムラナカ.xlsx
+++ b/doc/05_ファイル構成一覧表_イフリート・B・ムラナカ.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dojo6\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C619C7ED-0F93-4B7D-A82E-49AD7EED5BA4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C7B00E9-FD64-45FD-835B-D21870D1B10A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="19090" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{8AE99860-7ADF-4316-9590-B2AD2D1E8F62}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="155">
   <si>
     <t>項番</t>
     <rPh sb="0" eb="2">
@@ -811,58 +811,98 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>idpws.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>payments.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>buytters.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>goals.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>characters.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>charpics.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>nicebuycounts.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>points.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>historys.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>itemspics.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>items.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>banks.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>pictureBook.jsp</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>dress.jsp</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <t>貯金テーブル</t>
-    <rPh sb="0" eb="2">
-      <t>チョキン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>idpws.java</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>payments.java</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>buytters.java</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>goals.java</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>characters.java</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>charpics.java</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>nicebuycounts.java</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>points.java</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>historys.java</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>itemspics.java</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>items.java</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>banks.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>⑬装飾品画面jsp</t>
+    <rPh sb="1" eb="4">
+      <t>ソウショクヒン</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>⑭図鑑画面jsp</t>
+    <rPh sb="1" eb="5">
+      <t>ズカンガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>dressServlet.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>⑬装飾品画面</t>
+    <rPh sb="1" eb="4">
+      <t>ソウショクヒン</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>pictureBookServlet.java</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1268,17 +1308,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E03B5C93-7580-462C-846E-315461EE1FB8}">
-  <dimension ref="B2:G72"/>
+  <dimension ref="B2:G78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B53" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="E57" sqref="E57"/>
+    <sheetView tabSelected="1" topLeftCell="B3" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="F74" sqref="F74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
     <col min="3" max="3" width="9.75" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="29.58203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.25" customWidth="1"/>
     <col min="6" max="6" width="100.08203125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="16.08203125" customWidth="1"/>
   </cols>
@@ -1537,16 +1577,16 @@
         <v>13</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>33</v>
+        <v>8</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>81</v>
+        <v>148</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>9</v>
+        <v>150</v>
       </c>
       <c r="G15" s="1"/>
     </row>
@@ -1556,16 +1596,16 @@
         <v>14</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>33</v>
+        <v>8</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>82</v>
+        <v>147</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>34</v>
+        <v>151</v>
       </c>
       <c r="G16" s="1"/>
     </row>
@@ -1581,10 +1621,10 @@
         <v>33</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G17" s="1"/>
     </row>
@@ -1600,10 +1640,10 @@
         <v>33</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="G18" s="1"/>
     </row>
@@ -1619,10 +1659,10 @@
         <v>33</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G19" s="1"/>
     </row>
@@ -1638,10 +1678,10 @@
         <v>33</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G20" s="1"/>
     </row>
@@ -1657,10 +1697,10 @@
         <v>33</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G21" s="1"/>
     </row>
@@ -1676,10 +1716,10 @@
         <v>33</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="G22" s="1"/>
     </row>
@@ -1695,10 +1735,10 @@
         <v>33</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G23" s="1"/>
     </row>
@@ -1714,10 +1754,10 @@
         <v>33</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G24" s="1"/>
     </row>
@@ -1733,10 +1773,10 @@
         <v>33</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="G25" s="1"/>
     </row>
@@ -1752,10 +1792,10 @@
         <v>33</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>35</v>
+        <v>17</v>
       </c>
       <c r="G26" s="1"/>
     </row>
@@ -1768,13 +1808,13 @@
         <v>6</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>111</v>
+        <v>91</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>48</v>
+        <v>18</v>
       </c>
       <c r="G27" s="1"/>
     </row>
@@ -1787,13 +1827,13 @@
         <v>6</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>112</v>
+        <v>92</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="G28" s="1"/>
     </row>
@@ -1806,13 +1846,13 @@
         <v>6</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>113</v>
+        <v>152</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>50</v>
+        <v>153</v>
       </c>
       <c r="G29" s="1"/>
     </row>
@@ -1825,13 +1865,13 @@
         <v>6</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>114</v>
+        <v>154</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>51</v>
+        <v>151</v>
       </c>
       <c r="G30" s="1"/>
     </row>
@@ -1847,10 +1887,10 @@
         <v>46</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="F31" s="3" t="s">
-        <v>52</v>
+        <v>111</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>48</v>
       </c>
       <c r="G31" s="1"/>
     </row>
@@ -1866,10 +1906,10 @@
         <v>46</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="G32" s="1"/>
     </row>
@@ -1885,10 +1925,10 @@
         <v>46</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="G33" s="1"/>
     </row>
@@ -1904,10 +1944,10 @@
         <v>46</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="G34" s="1"/>
     </row>
@@ -1923,10 +1963,10 @@
         <v>46</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="F35" s="1" t="s">
-        <v>56</v>
+        <v>115</v>
+      </c>
+      <c r="F35" s="3" t="s">
+        <v>52</v>
       </c>
       <c r="G35" s="1"/>
     </row>
@@ -1942,10 +1982,10 @@
         <v>46</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="G36" s="1"/>
     </row>
@@ -1961,10 +2001,10 @@
         <v>46</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="G37" s="1"/>
     </row>
@@ -1979,11 +2019,11 @@
       <c r="D38" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="E38" s="3" t="s">
-        <v>122</v>
+      <c r="E38" s="1" t="s">
+        <v>118</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>80</v>
+        <v>55</v>
       </c>
       <c r="G38" s="1"/>
     </row>
@@ -1993,16 +2033,16 @@
         <v>37</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>58</v>
+        <v>6</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>105</v>
+        <v>119</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="G39" s="1"/>
     </row>
@@ -2012,16 +2052,16 @@
         <v>38</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>58</v>
+        <v>6</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>106</v>
+        <v>120</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="G40" s="1"/>
     </row>
@@ -2034,13 +2074,13 @@
         <v>58</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>107</v>
+        <v>121</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>62</v>
+        <v>47</v>
       </c>
       <c r="G41" s="1"/>
     </row>
@@ -2053,13 +2093,13 @@
         <v>58</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="E42" s="1" t="s">
-        <v>108</v>
+        <v>46</v>
+      </c>
+      <c r="E42" s="3" t="s">
+        <v>122</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>63</v>
+        <v>80</v>
       </c>
       <c r="G42" s="1"/>
     </row>
@@ -2075,10 +2115,10 @@
         <v>59</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="G43" s="1"/>
     </row>
@@ -2094,10 +2134,10 @@
         <v>59</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="G44" s="1"/>
     </row>
@@ -2107,16 +2147,16 @@
         <v>43</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>93</v>
+        <v>107</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="G45" s="1"/>
     </row>
@@ -2126,16 +2166,16 @@
         <v>44</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>94</v>
+        <v>108</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="G46" s="1"/>
     </row>
@@ -2148,13 +2188,13 @@
         <v>66</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>95</v>
+        <v>109</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="G47" s="1"/>
     </row>
@@ -2167,13 +2207,13 @@
         <v>66</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>96</v>
+        <v>110</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="G48" s="1"/>
     </row>
@@ -2189,10 +2229,10 @@
         <v>67</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="G49" s="1"/>
     </row>
@@ -2208,10 +2248,10 @@
         <v>67</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="G50" s="1"/>
     </row>
@@ -2227,10 +2267,10 @@
         <v>67</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="G51" s="1"/>
     </row>
@@ -2246,10 +2286,10 @@
         <v>67</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="G52" s="1"/>
     </row>
@@ -2265,10 +2305,10 @@
         <v>67</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="G53" s="1"/>
     </row>
@@ -2284,10 +2324,10 @@
         <v>67</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="G54" s="1"/>
     </row>
@@ -2303,10 +2343,10 @@
         <v>67</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="G55" s="1"/>
     </row>
@@ -2322,10 +2362,10 @@
         <v>67</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="G56" s="1"/>
     </row>
@@ -2335,16 +2375,16 @@
         <v>55</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>6</v>
+        <v>66</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>123</v>
+        <v>67</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>136</v>
+        <v>101</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>124</v>
+        <v>76</v>
       </c>
       <c r="G57" s="1"/>
     </row>
@@ -2354,16 +2394,16 @@
         <v>56</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>6</v>
+        <v>66</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>123</v>
+        <v>67</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>137</v>
+        <v>102</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>125</v>
+        <v>77</v>
       </c>
       <c r="G58" s="1"/>
     </row>
@@ -2376,13 +2416,13 @@
         <v>6</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>123</v>
+        <v>67</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>138</v>
+        <v>103</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>126</v>
+        <v>78</v>
       </c>
       <c r="G59" s="1"/>
     </row>
@@ -2395,13 +2435,13 @@
         <v>6</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>123</v>
+        <v>67</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>139</v>
+        <v>104</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>127</v>
+        <v>79</v>
       </c>
       <c r="G60" s="1"/>
     </row>
@@ -2416,11 +2456,11 @@
       <c r="D61" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="E61" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="F61" s="3" t="s">
-        <v>128</v>
+      <c r="E61" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="F61" s="1" t="s">
+        <v>124</v>
       </c>
       <c r="G61" s="1"/>
     </row>
@@ -2436,10 +2476,10 @@
         <v>123</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="G62" s="1"/>
     </row>
@@ -2455,10 +2495,10 @@
         <v>123</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="G63" s="1"/>
     </row>
@@ -2474,10 +2514,10 @@
         <v>123</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="G64" s="1"/>
     </row>
@@ -2492,11 +2532,11 @@
       <c r="D65" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="E65" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="F65" s="1" t="s">
-        <v>132</v>
+      <c r="E65" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="F65" s="3" t="s">
+        <v>128</v>
       </c>
       <c r="G65" s="1"/>
     </row>
@@ -2512,10 +2552,10 @@
         <v>123</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="G66" s="1"/>
     </row>
@@ -2531,16 +2571,16 @@
         <v>123</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="F67" s="1" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="G67" s="1"/>
     </row>
     <row r="68" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B68" s="1">
-        <f t="shared" ref="B68:B72" si="1">ROW()-2</f>
+        <f t="shared" ref="B68:B78" si="1">ROW()-2</f>
         <v>66</v>
       </c>
       <c r="C68" s="1" t="s">
@@ -2550,10 +2590,10 @@
         <v>123</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="G68" s="1"/>
     </row>
@@ -2562,10 +2602,18 @@
         <f t="shared" si="1"/>
         <v>67</v>
       </c>
-      <c r="C69" s="1"/>
-      <c r="D69" s="1"/>
-      <c r="E69" s="1"/>
-      <c r="F69" s="1"/>
+      <c r="C69" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D69" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="E69" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="F69" s="1" t="s">
+        <v>132</v>
+      </c>
       <c r="G69" s="1"/>
     </row>
     <row r="70" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -2573,10 +2621,18 @@
         <f t="shared" si="1"/>
         <v>68</v>
       </c>
-      <c r="C70" s="1"/>
-      <c r="D70" s="1"/>
-      <c r="E70" s="1"/>
-      <c r="F70" s="1"/>
+      <c r="C70" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D70" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="E70" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="F70" s="1" t="s">
+        <v>133</v>
+      </c>
       <c r="G70" s="1"/>
     </row>
     <row r="71" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -2584,10 +2640,18 @@
         <f t="shared" si="1"/>
         <v>69</v>
       </c>
-      <c r="C71" s="1"/>
-      <c r="D71" s="1"/>
-      <c r="E71" s="1"/>
-      <c r="F71" s="1"/>
+      <c r="C71" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D71" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="E71" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="F71" s="1" t="s">
+        <v>134</v>
+      </c>
       <c r="G71" s="1"/>
     </row>
     <row r="72" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -2595,11 +2659,79 @@
         <f t="shared" si="1"/>
         <v>70</v>
       </c>
-      <c r="C72" s="1"/>
-      <c r="D72" s="1"/>
-      <c r="E72" s="1"/>
-      <c r="F72" s="1"/>
+      <c r="C72" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D72" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="E72" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="F72" s="1" t="s">
+        <v>149</v>
+      </c>
       <c r="G72" s="1"/>
+    </row>
+    <row r="73" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B73" s="1">
+        <f t="shared" si="1"/>
+        <v>71</v>
+      </c>
+      <c r="C73" s="1"/>
+      <c r="D73" s="1"/>
+      <c r="E73" s="1"/>
+      <c r="F73" s="1"/>
+    </row>
+    <row r="74" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B74" s="1">
+        <f t="shared" si="1"/>
+        <v>72</v>
+      </c>
+      <c r="C74" s="1"/>
+      <c r="D74" s="1"/>
+      <c r="E74" s="1"/>
+      <c r="F74" s="1"/>
+    </row>
+    <row r="75" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B75" s="1">
+        <f t="shared" si="1"/>
+        <v>73</v>
+      </c>
+      <c r="C75" s="1"/>
+      <c r="D75" s="1"/>
+      <c r="E75" s="1"/>
+      <c r="F75" s="1"/>
+    </row>
+    <row r="76" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B76" s="1">
+        <f t="shared" si="1"/>
+        <v>74</v>
+      </c>
+      <c r="C76" s="1"/>
+      <c r="D76" s="1"/>
+      <c r="E76" s="1"/>
+      <c r="F76" s="1"/>
+    </row>
+    <row r="77" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B77" s="1">
+        <f t="shared" si="1"/>
+        <v>75</v>
+      </c>
+      <c r="C77" s="1"/>
+      <c r="D77" s="1"/>
+      <c r="E77" s="1"/>
+      <c r="F77" s="1"/>
+    </row>
+    <row r="78" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B78" s="1">
+        <f t="shared" si="1"/>
+        <v>76</v>
+      </c>
+      <c r="C78" s="1"/>
+      <c r="D78" s="1"/>
+      <c r="E78" s="1"/>
+      <c r="F78" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -2609,12 +2741,9 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2789,15 +2918,27 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39FADF03-5109-4CCE-A5D7-74DA56792023}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2CD51129-CE6F-45E1-BB00-4EFAA7AA477C}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="01c64581-d9a7-4bf3-8493-a30fa4f21230"/>
+    <ds:schemaRef ds:uri="f11e5c67-cf10-45fe-9586-3550a4dd026c"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -2822,18 +2963,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2CD51129-CE6F-45E1-BB00-4EFAA7AA477C}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39FADF03-5109-4CCE-A5D7-74DA56792023}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="01c64581-d9a7-4bf3-8493-a30fa4f21230"/>
-    <ds:schemaRef ds:uri="f11e5c67-cf10-45fe-9586-3550a4dd026c"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>